--- a/Agile.xlsx
+++ b/Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Image-Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C300A89-73A7-498E-8B32-F9CA16C7E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAA2971-5F50-45EE-B331-9E1C055E94C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E935330-A39C-44BE-9F97-B57720268434}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>Sprint</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,6 +763,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">

--- a/Agile.xlsx
+++ b/Agile.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Image-Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAA2971-5F50-45EE-B331-9E1C055E94C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF576C77-A72E-4538-AABA-6EC50B5EBBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E935330-A39C-44BE-9F97-B57720268434}"/>
   </bookViews>
   <sheets>
     <sheet name="02_03_24" sheetId="1" r:id="rId1"/>
     <sheet name="02_17_24" sheetId="2" r:id="rId2"/>
-    <sheet name="Tasks" sheetId="3" r:id="rId3"/>
+    <sheet name="Remaining Tasks" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Sprint</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Must rework shader and handle image processing class</t>
-  </si>
-  <si>
     <t>Ends</t>
   </si>
   <si>
@@ -225,6 +222,30 @@
   </si>
   <si>
     <t>FPS Counter Shader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placeholder </t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Must rework shader and handle image processing class.</t>
+  </si>
+  <si>
+    <t>Logger</t>
+  </si>
+  <si>
+    <t>Logger Class</t>
+  </si>
+  <si>
+    <t>Updated all error messages to logger</t>
+  </si>
+  <si>
+    <t>Needs to be singleton.</t>
+  </si>
+  <si>
+    <t>Need to be a singleton.</t>
   </si>
 </sst>
 </file>
@@ -600,7 +621,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,6 +663,9 @@
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -667,6 +691,9 @@
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -707,7 +734,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,10 +789,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,7 +806,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,12 +820,15 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>57</v>
@@ -851,10 +887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C9FBAC-C701-4031-A327-AA3C3F5B218D}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +904,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -948,12 +984,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -961,32 +997,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -999,8 +1035,11 @@
       <c r="D28" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>1</v>
       </c>
@@ -1011,7 +1050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -1019,7 +1058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>2</v>
       </c>
@@ -1030,7 +1069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -1083,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,7 +1195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>1</v>
       </c>
@@ -1164,7 +1203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>1</v>
       </c>
@@ -1172,7 +1211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>2</v>
       </c>
@@ -1180,7 +1219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>4</v>
       </c>
@@ -1188,39 +1227,58 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Agile.xlsx
+++ b/Agile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Image-Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF576C77-A72E-4538-AABA-6EC50B5EBBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245837E2-976F-4577-8125-17F4D960C417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E935330-A39C-44BE-9F97-B57720268434}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E935330-A39C-44BE-9F97-B57720268434}"/>
   </bookViews>
   <sheets>
     <sheet name="02_03_24" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>Sprint</t>
   </si>
@@ -215,9 +215,6 @@
     <t>FPS Counter Class</t>
   </si>
   <si>
-    <t>Note: Each point is ~2 hours of work.</t>
-  </si>
-  <si>
     <t>Text Shader</t>
   </si>
   <si>
@@ -246,6 +243,18 @@
   </si>
   <si>
     <t>Need to be a singleton.</t>
+  </si>
+  <si>
+    <t>Displays currently, but does not update in real-time.</t>
+  </si>
+  <si>
+    <t>One Solution.</t>
+  </si>
+  <si>
+    <t>Note: Each point is ~2 hours of work. Status can be 'Started,' 'Implemented,' 'Cleanup' and 'Finished.'</t>
+  </si>
+  <si>
+    <t>Median Filter (3 Color)</t>
   </si>
 </sst>
 </file>
@@ -618,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE06BE6-C00F-46F9-A856-B354F4C8DB08}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,7 +743,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,6 +778,12 @@
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -792,10 +807,10 @@
         <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,7 +827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45325</v>
       </c>
@@ -823,22 +838,36 @@
         <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>45338</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B19" s="1">
         <f>SUM(B2:B12)</f>
         <v>13</v>
       </c>
@@ -890,7 +919,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +933,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1036,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1122,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1264,13 +1293,13 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Agile.xlsx
+++ b/Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Image-Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245837E2-976F-4577-8125-17F4D960C417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1331D41-4355-45A1-A3DE-4051C9508685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E935330-A39C-44BE-9F97-B57720268434}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>Sprint</t>
   </si>
@@ -630,7 +630,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +766,9 @@
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/Agile.xlsx
+++ b/Agile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Image-Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1331D41-4355-45A1-A3DE-4051C9508685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908094B9-3926-47E1-AD1B-8D6B0AB4D03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E935330-A39C-44BE-9F97-B57720268434}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0E935330-A39C-44BE-9F97-B57720268434}"/>
   </bookViews>
   <sheets>
     <sheet name="02_03_24" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Agile.xlsx
+++ b/Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Image-Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908094B9-3926-47E1-AD1B-8D6B0AB4D03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D973CFC1-6B2E-4C9B-B10D-FB2F4252DDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0E935330-A39C-44BE-9F97-B57720268434}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>Sprint</t>
   </si>
@@ -221,9 +221,6 @@
     <t>FPS Counter Shader</t>
   </si>
   <si>
-    <t xml:space="preserve">Placeholder </t>
-  </si>
-  <si>
     <t>Started</t>
   </si>
   <si>
@@ -242,12 +239,6 @@
     <t>Needs to be singleton.</t>
   </si>
   <si>
-    <t>Need to be a singleton.</t>
-  </si>
-  <si>
-    <t>Displays currently, but does not update in real-time.</t>
-  </si>
-  <si>
     <t>One Solution.</t>
   </si>
   <si>
@@ -255,6 +246,12 @@
   </si>
   <si>
     <t>Median Filter (3 Color)</t>
+  </si>
+  <si>
+    <t>Need  to be a singleton and have all the pointer's nomenclature updated.</t>
+  </si>
+  <si>
+    <t>Placeholder. Needs to integrate with Resource Manager and be used in Render().</t>
   </si>
 </sst>
 </file>
@@ -630,7 +627,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45325</v>
       </c>
@@ -673,7 +670,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,7 +740,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -799,7 +796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45325</v>
       </c>
@@ -810,10 +807,10 @@
         <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,7 +827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45325</v>
       </c>
@@ -841,10 +838,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -855,7 +849,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -936,7 +933,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1068,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1296,13 +1293,13 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Agile.xlsx
+++ b/Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Image-Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D973CFC1-6B2E-4C9B-B10D-FB2F4252DDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6A657B-2994-4937-B496-35AF5129C0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0E935330-A39C-44BE-9F97-B57720268434}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>Sprint</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Placeholder. Needs to integrate with Resource Manager and be used in Render().</t>
+  </si>
+  <si>
+    <t>Placeholder general information.</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,6 +797,12 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">

--- a/Agile.xlsx
+++ b/Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Image-Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6A657B-2994-4937-B496-35AF5129C0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DBF834-406F-4BD2-B8FC-65B1DFC29E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0E935330-A39C-44BE-9F97-B57720268434}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>Sprint</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Image Process Class</t>
   </si>
   <si>
-    <t>New Format that needs to be integrated into the resource manager.</t>
-  </si>
-  <si>
     <t>Timer Class</t>
   </si>
   <si>
@@ -215,12 +212,6 @@
     <t>FPS Counter Class</t>
   </si>
   <si>
-    <t>Text Shader</t>
-  </si>
-  <si>
-    <t>FPS Counter Shader</t>
-  </si>
-  <si>
     <t>Started</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
     <t>Updated all error messages to logger</t>
   </si>
   <si>
-    <t>Needs to be singleton.</t>
-  </si>
-  <si>
     <t>One Solution.</t>
   </si>
   <si>
@@ -255,6 +243,15 @@
   </si>
   <si>
     <t>Placeholder general information.</t>
+  </si>
+  <si>
+    <t>Display picture and stop when Video ends</t>
+  </si>
+  <si>
+    <t>Placeholder caution image currently.</t>
+  </si>
+  <si>
+    <t>Integrate into the resource manager.</t>
   </si>
 </sst>
 </file>
@@ -630,7 +627,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +670,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,7 +740,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -765,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -779,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -796,13 +793,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -813,13 +810,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
@@ -844,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -852,24 +849,41 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45325</v>
+        <v>45329</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,7 +905,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C9FBAC-C701-4031-A327-AA3C3F5B218D}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +956,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1022,12 +1036,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1035,140 +1049,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1222,7 +1130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>2</v>
       </c>
@@ -1230,7 +1138,7 @@
         <v>36</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,53 +1170,53 @@
         <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1316,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
